--- a/src/main/java/com/test/automation/UIautomation/data/Testdata.xlsx
+++ b/src/main/java/com/test/automation/UIautomation/data/Testdata.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="13845" windowHeight="2670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestdata" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>aut5@gmail.com</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -142,6 +148,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -189,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,7 +445,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,6 +472,9 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -471,6 +483,9 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -479,6 +494,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -486,6 +504,9 @@
       </c>
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/test/automation/UIautomation/data/Testdata.xlsx
+++ b/src/main/java/com/test/automation/UIautomation/data/Testdata.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="2595" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestdata" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ExistingUser" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K7"/>
+  <oleSize ref="A2:N12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>tst12345@gmail.com</t>
+  </si>
+  <si>
+    <t>emailaddress</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>tstt12345@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -78,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +100,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -105,10 +123,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -444,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -525,20 +544,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E6" sqref="D6:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/main/java/com/test/automation/UIautomation/data/Testdata.xlsx
+++ b/src/main/java/com/test/automation/UIautomation/data/Testdata.xlsx
@@ -1,61 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\srarvapa\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14325" windowHeight="2595" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestdata" sheetId="1" r:id="rId1"/>
     <sheet name="ExistingUser" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A2:N12"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
-  <si>
-    <t>Username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>RunMode</t>
-  </si>
-  <si>
     <t>aut2@gmail.com</t>
   </si>
   <si>
+    <t>aut3@gmail.com</t>
+  </si>
+  <si>
+    <t>aut4@gmail.com</t>
+  </si>
+  <si>
     <t>password1</t>
   </si>
   <si>
-    <t>aut3@gmail.com</t>
-  </si>
-  <si>
-    <t>aut4@gmail.com</t>
-  </si>
-  <si>
-    <t>aut5@gmail.com</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>EmailAddress</t>
   </si>
   <si>
     <t>tst12345@gmail.com</t>
-  </si>
-  <si>
-    <t>emailaddress</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>tstt12345@gmail.com</t>
@@ -90,7 +80,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,13 +89,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,46 +107,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -185,39 +140,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,236 +251,187 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -533,71 +439,49 @@
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>